--- a/GAM403-A2_MilestonesTemplate_Jordan_Hardie.xlsx
+++ b/GAM403-A2_MilestonesTemplate_Jordan_Hardie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Documents\GitHub\GAM403_A2_Jordan_Hardie2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2349AEDD-D27D-4A14-A67A-DDB822E87E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C54C18-270F-4CB8-8438-658A8A6BE3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2AD2CF00-CD03-4335-9EA3-956C0D57C64D}"/>
   </bookViews>
@@ -69,12 +69,6 @@
     <t>Days Left</t>
   </si>
   <si>
-    <t>Detailed notes on what this milestone aims to achieve. Being detailed here will help you immensely.</t>
-  </si>
-  <si>
-    <t>Any issues, changes, or miscellaneous notes go here.</t>
-  </si>
-  <si>
     <t>Developer:  Jordan Hardie</t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>Movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added keyboard input functionality. </t>
+  </si>
+  <si>
+    <t>Movemevent moved based on global z axis instead of local.</t>
   </si>
 </sst>
 </file>
@@ -348,13 +348,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,7 +695,7 @@
   <dimension ref="A2:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,15 +716,15 @@
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -749,10 +749,10 @@
     </row>
     <row r="5" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>43779</v>
@@ -765,7 +765,7 @@
         <v>43774</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">

--- a/GAM403-A2_MilestonesTemplate_Jordan_Hardie.xlsx
+++ b/GAM403-A2_MilestonesTemplate_Jordan_Hardie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Documents\GitHub\GAM403_A2_Jordan_Hardie2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C54C18-270F-4CB8-8438-658A8A6BE3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C221F0F9-D6BF-4C37-9F70-FAFEBE6F9A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2AD2CF00-CD03-4335-9EA3-956C0D57C64D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2AD2CF00-CD03-4335-9EA3-956C0D57C64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Milestone</t>
   </si>
@@ -82,6 +82,99 @@
   </si>
   <si>
     <t>Movemevent moved based on global z axis instead of local.</t>
+  </si>
+  <si>
+    <t>Added textures and floor and sub floor.</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Floor texture and enemies are red.</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Added mouse input functionality</t>
+  </si>
+  <si>
+    <t>Separate so it works better I guess.</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
+  <si>
+    <t>Added basic enemy logic that goes towards the player.</t>
+  </si>
+  <si>
+    <t>This also includes adding collision dectection.</t>
+  </si>
+  <si>
+    <t>Shooting</t>
+  </si>
+  <si>
+    <t>Simple raycast from camera to enemies.</t>
+  </si>
+  <si>
+    <t>This also includes doing damage to the enemies and killing them.</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Added first spawner enemy.</t>
+  </si>
+  <si>
+    <t>Spawns first enemies at regular intervals.</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Added animations</t>
+  </si>
+  <si>
+    <t>Added walking animations.</t>
+  </si>
+  <si>
+    <t>Added UI</t>
+  </si>
+  <si>
+    <t>Added various UI logic and camera fixes</t>
+  </si>
+  <si>
+    <t>Finalized UI logic and implemented aniamtion logic.</t>
+  </si>
+  <si>
+    <t>Projectiles</t>
+  </si>
+  <si>
+    <t>Replaced doing damage with raycast method to bullets doing damage.</t>
+  </si>
+  <si>
+    <t>Still utilizing raycast for a path that the bullets travel along.</t>
+  </si>
+  <si>
+    <t>Fixes</t>
+  </si>
+  <si>
+    <t>Fixed collision dectection and fire rate issues. Also added lifetime to the gems.</t>
+  </si>
+  <si>
+    <t>Major additions.</t>
+  </si>
+  <si>
+    <t>Added lerp transformations for enemies, added second spawner, fixed weakpoint systems, added shrinking floor, added incremental spawnrate.</t>
+  </si>
+  <si>
+    <t>Fixed animations as well.</t>
+  </si>
+  <si>
+    <t>Added jumping mechanics and animations.</t>
   </si>
 </sst>
 </file>
@@ -694,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA462C77-ECFC-40AE-BD92-9F45B89E8D15}">
   <dimension ref="A2:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,15 +847,15 @@
       <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>43779</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="18" t="e">
         <f t="shared" ref="E5:E36" ca="1" si="0">IF(D5&lt;&gt;"",D5-TODAY(),"")</f>
-        <v>-141</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43774</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
@@ -770,114 +863,214 @@
     </row>
     <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43926</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43927</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43934</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43936</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43957</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
